--- a/myapp/app-39-server/data.xlsx
+++ b/myapp/app-39-server/data.xlsx
@@ -6,15 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="users" r:id="rId6" sheetId="97"/>
-    <sheet name="boards" r:id="rId7" sheetId="98"/>
-    <sheet name="projects" r:id="rId5" sheetId="99"/>
+    <sheet name="users" r:id="rId6" sheetId="94"/>
+    <sheet name="boards" r:id="rId7" sheetId="95"/>
+    <sheet name="projects" r:id="rId5" sheetId="96"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5023" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4877" uniqueCount="142">
   <si>
     <t>no</t>
   </si>
@@ -482,7 +482,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -733,7 +733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -882,7 +882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F6"/>
   <sheetViews>
